--- a/Final/Result Data/Data_Initial_Result.xlsx
+++ b/Final/Result Data/Data_Initial_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive\Documents\GitHub\EngineeringOptimization\Final\Result Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB821F-ABD1-4AE8-BE59-2C0EE1703570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77662D3-C2C6-4A35-8457-43CD79644D6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
